--- a/Data/绍兴市雷电公报图表.xlsx
+++ b/Data/绍兴市雷电公报图表.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="-24" windowWidth="7452" windowHeight="4920"/>
+    <workbookView xWindow="450" yWindow="-30" windowWidth="7455" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="省地区" sheetId="7" r:id="rId1"/>
     <sheet name="市分区" sheetId="8" r:id="rId2"/>
     <sheet name="月份" sheetId="6" r:id="rId3"/>
-    <sheet name="正" sheetId="1" r:id="rId4"/>
-    <sheet name="负" sheetId="5" r:id="rId5"/>
-    <sheet name="地闪强度波动" sheetId="9" r:id="rId6"/>
+    <sheet name="地闪强度波动" sheetId="9" r:id="rId4"/>
+    <sheet name="正" sheetId="1" r:id="rId5"/>
+    <sheet name="负" sheetId="5" r:id="rId6"/>
     <sheet name="时段" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
-  <si>
-    <t>Expr1001</t>
-  </si>
-  <si>
-    <t>Expr1002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Expr1000</t>
   </si>
@@ -185,12 +179,6 @@
     <t>负闪次数</t>
   </si>
   <si>
-    <t>平均强度</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
     <t>正闪次数</t>
   </si>
   <si>
@@ -264,6 +252,18 @@
     <t>杭州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>左边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +271,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -411,7 +411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -422,9 +422,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,7 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,13 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,8 +513,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规_地区" xfId="5"/>
@@ -533,7 +525,6 @@
     <cellStyle name="常规_市分区" xfId="7"/>
     <cellStyle name="常规_市分区_1" xfId="9"/>
     <cellStyle name="常规_月份" xfId="4"/>
-    <cellStyle name="常规_月份_1" xfId="10"/>
     <cellStyle name="常规_正" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
@@ -578,6 +569,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,6 +700,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -723,6 +724,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -818,12 +825,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="16588800"/>
-        <c:axId val="16590720"/>
+        <c:axId val="-805773744"/>
+        <c:axId val="-805774832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="16588800"/>
+        <c:axId val="-805773744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16590720"/>
+        <c:crossAx val="-805774832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16590720"/>
+        <c:axId val="-805774832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -918,7 +925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16588800"/>
+        <c:crossAx val="-805773744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,6 +1110,13 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1120,6 +1134,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1214,8 +1234,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="239719552"/>
-        <c:axId val="239721856"/>
+        <c:axId val="-805775920"/>
+        <c:axId val="-805775376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1331,11 +1351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239852928"/>
-        <c:axId val="239851008"/>
+        <c:axId val="-805780816"/>
+        <c:axId val="-805774288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239719552"/>
+        <c:axId val="-805775920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239721856"/>
+        <c:crossAx val="-805775376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239721856"/>
+        <c:axId val="-805775376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1458,14 +1478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239719552"/>
+        <c:crossAx val="-805775920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239851008"/>
+        <c:axId val="-805774288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1487,23 +1507,24 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239852928"/>
+        <c:crossAx val="-805780816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="239852928"/>
+        <c:axId val="-805780816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239851008"/>
+        <c:crossAx val="-805774288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1641,6 +1662,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1697,7 +1719,7 @@
                   <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1561</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4788</c:v>
@@ -1706,10 +1728,10 @@
                   <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3360</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12272</c:v>
+                  <c:v>9272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,22 +1746,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="240315008"/>
-        <c:axId val="240583040"/>
+        <c:axId val="-805779728"/>
+        <c:axId val="-805778640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="240315008"/>
+        <c:axId val="-805779728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240583040"/>
+        <c:crossAx val="-805778640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240583040"/>
+        <c:axId val="-805778640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,13 +1780,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240315008"/>
+        <c:crossAx val="-805779728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2176,12 +2199,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="16060416"/>
-        <c:axId val="16062336"/>
+        <c:axId val="-805772656"/>
+        <c:axId val="-805769392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="16060416"/>
+        <c:axId val="-805772656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,6 +2226,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2219,7 +2243,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16062336"/>
+        <c:crossAx val="-805769392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16062336"/>
+        <c:axId val="-805769392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -2286,7 +2310,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16060416"/>
+        <c:crossAx val="-805772656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2347,6 +2371,796 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>2015</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t>年绍兴市地闪强度月统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28250502240417541"/>
+          <c:y val="3.3333333333333333E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10344835159203962"/>
+          <c:y val="0.13392618576706347"/>
+          <c:w val="0.86057034512798181"/>
+          <c:h val="0.66489514254505167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>地闪强度波动!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均负闪强度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000080"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9965017491254375E-3"/>
+                  <c:y val="-3.7456309696825084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9965017491254375E-3"/>
+                  <c:y val="-1.9090836785897632E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.297351324337831E-2"/>
+                  <c:y val="-8.0715530393411575E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>地闪强度波动!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>地闪强度波动!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.193103448275849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.594444444444441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.423726114649703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.874574468085086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.676016027475626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.334515935057127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.336733970952888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.91370786516854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.480176211453752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>地闪强度波动!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均正闪强度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8985507246376812E-2"/>
+                  <c:y val="-3.9678676529070228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8985507246376812E-2"/>
+                  <c:y val="-3.233248736469925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF00FF"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>地闪强度波动!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>地闪强度波动!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.337795275590544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.401030927835045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.269767441860463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.94146341463415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.581481481481479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.054999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.377777777777773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.728571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-805771024"/>
+        <c:axId val="-805783536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-805771024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>月份</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50374849470906247"/>
+              <c:y val="0.83611337921381079"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="969696"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-805783536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-805783536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体"/>
+                    <a:ea typeface="宋体"/>
+                    <a:cs typeface="宋体"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>地闪强度（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>kA）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5403572879426642E-2"/>
+              <c:y val="0.2750007589745288"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="969696"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体"/>
+                <a:ea typeface="宋体"/>
+                <a:cs typeface="宋体"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-805771024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="969696"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3564179513408259E-2"/>
+          <c:y val="0.87047658243902959"/>
+          <c:w val="0.39838530364375518"/>
+          <c:h val="8.7916673137751269E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="宋体"/>
+          <a:ea typeface="宋体"/>
+          <a:cs typeface="宋体"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2617,8 +3431,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="16122624"/>
-        <c:axId val="16124928"/>
+        <c:axId val="-805777008"/>
+        <c:axId val="-805776464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2769,11 +3583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="16129024"/>
-        <c:axId val="16127104"/>
+        <c:axId val="-805771568"/>
+        <c:axId val="-805780272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16122624"/>
+        <c:axId val="-805777008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +3651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16124928"/>
+        <c:crossAx val="-805776464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +3659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16124928"/>
+        <c:axId val="-805776464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2900,13 +3714,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16122624"/>
+        <c:crossAx val="-805777008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16127104"/>
+        <c:axId val="-805780272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2953,13 +3767,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16129024"/>
+        <c:crossAx val="-805771568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="16129024"/>
+        <c:axId val="-805771568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +3782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="16127104"/>
+        <c:crossAx val="-805780272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3842,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3299,8 +4113,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="16163968"/>
-        <c:axId val="16166272"/>
+        <c:axId val="-805781904"/>
+        <c:axId val="-804616208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3451,11 +4265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="16178560"/>
-        <c:axId val="16176640"/>
+        <c:axId val="-804609136"/>
+        <c:axId val="-804610768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16163968"/>
+        <c:axId val="-805781904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3519,7 +4333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16166272"/>
+        <c:crossAx val="-804616208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3527,7 +4341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16166272"/>
+        <c:axId val="-804616208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,12 +4394,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16163968"/>
+        <c:crossAx val="-805781904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16176640"/>
+        <c:axId val="-804610768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3632,13 +4446,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16178560"/>
+        <c:crossAx val="-804609136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="16178560"/>
+        <c:axId val="-804609136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +4461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="16176640"/>
+        <c:crossAx val="-804610768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3703,759 +4517,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr anchor="t" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-              <a:t>2015</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t>年绍兴市地闪强度月统计</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28250502240417541"/>
-          <c:y val="3.3333333333333333E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10344835159203962"/>
-          <c:y val="0.13392618576706347"/>
-          <c:w val="0.86057034512798181"/>
-          <c:h val="0.66489514254505167"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>地闪强度波动!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>平均负闪强度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000080"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000080"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.9965017491254375E-3"/>
-                  <c:y val="-3.7456309696825084E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.9965017491254375E-3"/>
-                  <c:y val="-1.9090836785897632E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.297351324337831E-2"/>
-                  <c:y val="-8.0715530393411575E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>地闪强度波动!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>地闪强度波动!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.19310344827575</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33.594444444444406</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.423726114649682</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.874574468085072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.676016027475619</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.334515935057183</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.336733970952924</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.913707865168476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32.199999999999946</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.480176211453731</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>地闪强度波动!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>平均正闪强度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF00FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF00FF"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.8985507246376812E-2"/>
-                  <c:y val="-3.9678676529070228E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.8985507246376812E-2"/>
-                  <c:y val="-3.233248736469925E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF00FF"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>地闪强度波动!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>地闪强度波动!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.299999999999898</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0_ ">
-                  <c:v>126.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0_ ">
-                  <c:v>39.337795275590501</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0_ ">
-                  <c:v>44.401030927834981</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0_ ">
-                  <c:v>24.26976744186042</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0_ ">
-                  <c:v>36.9414634146341</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.0_ ">
-                  <c:v>25.581481481481458</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.0_ ">
-                  <c:v>40.054999999999978</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.0_ ">
-                  <c:v>33.37777777777773</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.0_ ">
-                  <c:v>30.728571428571392</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="16389632"/>
-        <c:axId val="16391552"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="16389632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>月份</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.50374849470906247"/>
-              <c:y val="0.83611337921381079"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="969696"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16391552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="16391552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:tint val="75000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>地闪强度（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
-                  <a:t>kA）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.3988023557574404E-2"/>
-              <c:y val="0.27500074598726665"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="969696"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16389632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="969696"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.3564179513408259E-2"/>
-          <c:y val="0.87047658243902959"/>
-          <c:w val="0.39838530364375518"/>
-          <c:h val="8.7916673137751269E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5073,12 +5134,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="16438400"/>
-        <c:axId val="16440320"/>
+        <c:axId val="-804609680"/>
+        <c:axId val="-804624368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="16438400"/>
+        <c:axId val="-804609680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,6 +5161,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5116,7 +5178,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16440320"/>
+        <c:crossAx val="-804624368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5124,7 +5186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16440320"/>
+        <c:axId val="-804624368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -5172,7 +5234,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16438400"/>
+        <c:crossAx val="-804609680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5392,6 +5454,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>519953</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5423,7 +5522,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5441,43 +5540,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>154305</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5533,7 +5595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5575,7 +5637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5610,7 +5672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5822,47 +5884,47 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="11"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="37">
+      <c r="A2" s="33">
         <v>15616</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10">
         <v>16596</v>
@@ -5885,15 +5947,15 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="37">
+      <c r="A3" s="33">
         <v>19374</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="10">
         <v>9365</v>
@@ -5918,11 +5980,11 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="37">
+      <c r="A4" s="33">
         <v>12942</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10">
         <v>11784</v>
@@ -5947,11 +6009,11 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="37">
+      <c r="A5" s="33">
         <v>3011</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10">
         <v>5794</v>
@@ -5976,11 +6038,11 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="37">
+      <c r="A6" s="33">
         <v>4161</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10">
         <v>3915</v>
@@ -6005,11 +6067,11 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="37">
+      <c r="A7" s="33">
         <v>9272</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10">
         <v>8256</v>
@@ -6034,11 +6096,11 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="37">
+      <c r="A8" s="33">
         <v>19839</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10">
         <v>10919</v>
@@ -6063,11 +6125,11 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="37">
+      <c r="A9" s="33">
         <v>17398</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10">
         <v>8837</v>
@@ -6092,11 +6154,11 @@
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="37">
+      <c r="A10" s="33">
         <v>1598</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="10">
         <v>1440</v>
@@ -6121,11 +6183,11 @@
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="37">
+      <c r="A11" s="33">
         <v>25476</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10">
         <v>9413</v>
@@ -6150,11 +6212,11 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="37">
+      <c r="A12" s="33">
         <v>16926</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10">
         <v>17298</v>
@@ -6179,14 +6241,14 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="37">
+      <c r="A13" s="33">
         <f>SUM(A2:A12)</f>
         <v>145613</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="B13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="34">
         <f>SUM(C2:C12)</f>
         <v>103617</v>
       </c>
@@ -6202,45 +6264,45 @@
     </row>
     <row r="16" spans="1:26">
       <c r="C16" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="L16" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <f>A2</f>
@@ -6293,7 +6355,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="19">
         <f>D2</f>
@@ -6345,12 +6407,12 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="34" customFormat="1">
-      <c r="E20" s="35"/>
+      <c r="A19" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="30" customFormat="1">
+      <c r="E20" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6365,103 +6427,103 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
-      <c r="A1" s="30" t="s">
-        <v>40</v>
+    <row r="1" spans="1:6" ht="27">
+      <c r="A1" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="26">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>1970</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="26">
-        <v>3360</v>
+      <c r="B6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="25">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="25">
         <v>4788</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="29" t="s">
-        <v>41</v>
+      <c r="A10" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <f>C7</f>
@@ -6476,13 +6538,13 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" ref="E12:E17" si="0">B12/$B$18</f>
-        <v>8.6375488917861797E-3</v>
+        <v>1.1432269197584125E-2</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <f>C3</f>
@@ -6497,34 +6559,34 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>3.9683833116036508E-2</v>
+        <v>5.2523727351164798E-2</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <f>C4</f>
-        <v>1561</v>
+        <v>561</v>
       </c>
       <c r="C14">
         <v>1403</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.1126158232359231</v>
+        <v>0.39985744832501779</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0.12720013037809649</v>
+        <v>6.0504745470232962E-2</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <f>C8</f>
@@ -6539,13 +6601,13 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>0.39015645371577573</v>
+        <v>0.51639344262295084</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <f>C5</f>
@@ -6560,38 +6622,38 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>0.16052803129074317</v>
+        <v>0.21246764452113892</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <f>C6</f>
-        <v>3360</v>
+        <v>1360</v>
       </c>
       <c r="C17">
         <v>1213</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.7699917559769167</v>
+        <v>1.1211871393239901</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>0.27379400260756193</v>
+        <v>0.14667817083692838</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <f>SUM(B12:B17)</f>
-        <v>12272</v>
+        <v>9272</v>
       </c>
       <c r="C18">
         <f>SUM(C12:C17)</f>
@@ -6599,7 +6661,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.4864341085271318</v>
+        <v>1.123062015503876</v>
       </c>
       <c r="E18" s="6">
         <f>SUM(E12:E17)</f>
@@ -6608,37 +6670,37 @@
       <c r="F18" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="29" t="s">
-        <v>42</v>
+      <c r="A20" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="E21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="28" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="B22">
         <f>B12</f>
@@ -6650,7 +6712,7 @@
       </c>
       <c r="D22">
         <f>B14</f>
-        <v>1561</v>
+        <v>561</v>
       </c>
       <c r="E22">
         <f>B15</f>
@@ -6662,44 +6724,44 @@
       </c>
       <c r="G22">
         <f>B17</f>
-        <v>3360</v>
+        <v>1360</v>
       </c>
       <c r="H22">
         <f>B18</f>
-        <v>12272</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="23">
+      <c r="A23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="22">
         <f>D12</f>
         <v>0.21285140562248997</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f>D13</f>
         <v>0.46781940441882808</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <f>D14</f>
-        <v>1.1126158232359231</v>
-      </c>
-      <c r="E23" s="23">
+        <v>0.39985744832501779</v>
+      </c>
+      <c r="E23" s="22">
         <f>D15</f>
         <v>2.0718303764604067</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <f>D16</f>
         <v>1.1005586592178771</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <f>D17</f>
-        <v>2.7699917559769167</v>
-      </c>
-      <c r="H23" s="23">
+        <v>1.1211871393239901</v>
+      </c>
+      <c r="H23" s="22">
         <f>D18</f>
-        <v>1.4864341085271318</v>
+        <v>1.123062015503876</v>
       </c>
     </row>
   </sheetData>
@@ -6716,13 +6778,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>
@@ -6731,16 +6793,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -6749,15 +6811,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="9">
-        <f>A21+D21</f>
+        <f>B2+C2</f>
         <v>0</v>
       </c>
       <c r="B2" s="13">
-        <f>D21</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>A21</f>
         <v>0</v>
       </c>
       <c r="D2" s="10">
@@ -6778,22 +6838,20 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9">
-        <f t="shared" ref="A3:A13" si="0">A22+D22</f>
+        <f t="shared" ref="A3:A13" si="0">B3+C3</f>
         <v>30</v>
       </c>
       <c r="B3" s="13">
-        <f t="shared" ref="B3:B13" si="1">D22</f>
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C13" si="2">A22</f>
         <v>29</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E13" si="3">A3/$A$14</f>
+        <f t="shared" ref="E3:E13" si="1">A3/$A$14</f>
         <v>3.2355478861087143E-3</v>
       </c>
       <c r="F3" s="11">
@@ -6811,11 +6869,9 @@
         <v>39</v>
       </c>
       <c r="B4" s="13">
-        <f>D23</f>
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D4" s="10">
@@ -6826,7 +6882,7 @@
         <v>4.2062122519413289E-3</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F12" si="4">F3+E4</f>
+        <f t="shared" ref="F4:F12" si="2">F3+E4</f>
         <v>7.4417601380500431E-3</v>
       </c>
       <c r="H4" s="13"/>
@@ -6840,22 +6896,20 @@
         <v>755</v>
       </c>
       <c r="B5" s="13">
-        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="2"/>
         <v>628</v>
       </c>
       <c r="D5" s="10">
         <v>4</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8.1427955133735977E-2</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8.8869715271786026E-2</v>
       </c>
       <c r="H5" s="13"/>
@@ -6869,22 +6923,20 @@
         <v>1037</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="2"/>
         <v>940</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1118421052631579</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.20071182053494391</v>
       </c>
       <c r="H6" s="13"/>
@@ -6898,22 +6950,20 @@
         <v>1833</v>
       </c>
       <c r="B7" s="13">
-        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="2"/>
         <v>1747</v>
       </c>
       <c r="D7" s="10">
         <v>6</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.19769197584124246</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.39840379637618639</v>
       </c>
       <c r="G7" s="11">
@@ -6931,22 +6981,20 @@
         <v>1745</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="2"/>
         <v>1663</v>
       </c>
       <c r="D8" s="10">
         <v>7</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.18820103537532357</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.58660483175151001</v>
       </c>
       <c r="H8" s="13"/>
@@ -6960,22 +7008,20 @@
         <v>2877</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="2"/>
         <v>2823</v>
       </c>
       <c r="D9" s="10">
         <v>8</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.31028904227782572</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.89689387402933574</v>
       </c>
       <c r="H9" s="13"/>
@@ -6989,22 +7035,20 @@
         <v>465</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="D10" s="10">
         <v>9</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.0150992234685075E-2</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.94704486626402085</v>
       </c>
       <c r="H10" s="13"/>
@@ -7018,18 +7062,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.7256255392579811E-3</v>
       </c>
       <c r="F11" s="11">
@@ -7047,22 +7089,20 @@
         <v>475</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="D12" s="10">
         <v>11</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.1229508196721313E-2</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="H12" s="13"/>
@@ -7076,18 +7116,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D13" s="10">
         <v>12</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="11">
@@ -7105,12 +7143,15 @@
         <v>9272</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ref="B14:C14" si="5">SUM(B2:B13)</f>
+        <f t="shared" ref="B14:C14" si="3">SUM(B2:B13)</f>
         <v>500</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8772</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="11">
         <f>SUM(E2:E13)</f>
@@ -7133,299 +7174,59 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="8:11">
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="8:11">
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="8:11">
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>45</v>
-      </c>
+    <row r="20" spans="8:11">
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6">
-      <c r="A21" s="32">
-        <v>0</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
+    <row r="21" spans="8:11">
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="32">
-        <v>29</v>
-      </c>
-      <c r="B22" s="32">
-        <v>82.19310344827575</v>
-      </c>
-      <c r="C22" s="32">
-        <v>2</v>
-      </c>
-      <c r="D22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="32">
-        <v>40.299999999999898</v>
-      </c>
-      <c r="F22" s="32">
-        <v>2</v>
-      </c>
+    <row r="22" spans="8:11">
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="32">
-        <v>36</v>
-      </c>
-      <c r="B23" s="32">
-        <v>33.594444444444406</v>
-      </c>
-      <c r="C23" s="32">
-        <v>3</v>
-      </c>
-      <c r="D23" s="32">
-        <v>3</v>
-      </c>
-      <c r="E23" s="32">
-        <v>126.59999999999997</v>
-      </c>
-      <c r="F23" s="32">
-        <v>3</v>
-      </c>
+    <row r="23" spans="8:11">
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="32">
-        <v>628</v>
-      </c>
-      <c r="B24" s="32">
-        <v>24.423726114649682</v>
-      </c>
-      <c r="C24" s="32">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32">
-        <v>127</v>
-      </c>
-      <c r="E24" s="32">
-        <v>39.337795275590501</v>
-      </c>
-      <c r="F24" s="32">
-        <v>4</v>
-      </c>
+    <row r="24" spans="8:11">
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="32">
-        <v>940</v>
-      </c>
-      <c r="B25" s="32">
-        <v>33.874574468085072</v>
-      </c>
-      <c r="C25" s="32">
-        <v>5</v>
-      </c>
-      <c r="D25" s="32">
-        <v>97</v>
-      </c>
-      <c r="E25" s="32">
-        <v>44.401030927834981</v>
-      </c>
-      <c r="F25" s="32">
-        <v>5</v>
-      </c>
+    <row r="25" spans="8:11">
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="32">
-        <v>1747</v>
-      </c>
-      <c r="B26" s="32">
-        <v>30.676016027475619</v>
-      </c>
-      <c r="C26" s="32">
-        <v>6</v>
-      </c>
-      <c r="D26" s="32">
-        <v>86</v>
-      </c>
-      <c r="E26" s="32">
-        <v>24.26976744186042</v>
-      </c>
-      <c r="F26" s="32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="32">
-        <v>1663</v>
-      </c>
-      <c r="B27" s="32">
-        <v>34.334515935057183</v>
-      </c>
-      <c r="C27" s="32">
-        <v>7</v>
-      </c>
-      <c r="D27" s="32">
-        <v>82</v>
-      </c>
-      <c r="E27" s="32">
-        <v>36.9414634146341</v>
-      </c>
-      <c r="F27" s="32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="32">
-        <v>2823</v>
-      </c>
-      <c r="B28" s="32">
-        <v>31.336733970952924</v>
-      </c>
-      <c r="C28" s="32">
-        <v>8</v>
-      </c>
-      <c r="D28" s="32">
-        <v>54</v>
-      </c>
-      <c r="E28" s="32">
-        <v>25.581481481481458</v>
-      </c>
-      <c r="F28" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="32">
-        <v>445</v>
-      </c>
-      <c r="B29" s="32">
-        <v>34.913707865168476</v>
-      </c>
-      <c r="C29" s="32">
-        <v>9</v>
-      </c>
-      <c r="D29" s="32">
-        <v>20</v>
-      </c>
-      <c r="E29" s="32">
-        <v>40.054999999999978</v>
-      </c>
-      <c r="F29" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="32">
-        <v>7</v>
-      </c>
-      <c r="B30" s="32">
-        <v>32.199999999999946</v>
-      </c>
-      <c r="C30" s="32">
-        <v>10</v>
-      </c>
-      <c r="D30" s="32">
-        <v>9</v>
-      </c>
-      <c r="E30" s="32">
-        <v>33.37777777777773</v>
-      </c>
-      <c r="F30" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="32">
-        <v>454</v>
-      </c>
-      <c r="B31" s="32">
-        <v>30.480176211453731</v>
-      </c>
-      <c r="C31" s="32">
-        <v>11</v>
-      </c>
-      <c r="D31" s="32">
-        <v>21</v>
-      </c>
-      <c r="E31" s="32">
-        <v>30.728571428571392</v>
-      </c>
-      <c r="F31" s="32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32">
-        <v>12</v>
-      </c>
-      <c r="D32" s="32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="32">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7437,28 +7238,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="9.875" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>82.193103448275849</v>
+      </c>
+      <c r="C3" s="35">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>33.594444444444441</v>
+      </c>
+      <c r="C4" s="35">
+        <v>126.60000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>24.423726114649703</v>
+      </c>
+      <c r="C5" s="35">
+        <v>39.337795275590544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>33.874574468085086</v>
+      </c>
+      <c r="C6" s="35">
+        <v>44.401030927835045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
+        <v>30.676016027475626</v>
+      </c>
+      <c r="C7" s="35">
+        <v>24.269767441860463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35">
+        <v>34.334515935057127</v>
+      </c>
+      <c r="C8" s="35">
+        <v>36.94146341463415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35">
+        <v>31.336733970952888</v>
+      </c>
+      <c r="C9" s="35">
+        <v>25.581481481481479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35">
+        <v>34.91370786516854</v>
+      </c>
+      <c r="C10" s="35">
+        <v>40.054999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35">
+        <v>32.199999999999996</v>
+      </c>
+      <c r="C11" s="35">
+        <v>33.377777777777773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35">
+        <v>30.480176211453752</v>
+      </c>
+      <c r="C12" s="35">
+        <v>30.728571428571428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -8021,528 +7988,6 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="4" max="4" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <f>A2/$A$27</f>
-        <v>5.699954400364797E-4</v>
-      </c>
-      <c r="E2" s="6">
-        <f>D2</f>
-        <v>5.699954400364797E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D26" si="0">A3/$A$27</f>
-        <v>1.0031919744642043E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <f>E2+D3</f>
-        <v>1.0601915184678522E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>994</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11331509347925217</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E26" si="1">E3+D4</f>
-        <v>0.1239170086639307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>1623</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18502051983584131</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.30893752849977202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>1556</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1773825809393525</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.48632010943912451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>1179</v>
-      </c>
-      <c r="B7" s="2">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.13440492476060192</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.62072503419972647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>873</v>
-      </c>
-      <c r="B8" s="2">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>9.9521203830369359E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.7202462380300958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>600</v>
-      </c>
-      <c r="B9" s="2">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>6.8399452804377564E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.78864569083447333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>394</v>
-      </c>
-      <c r="B10" s="2">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>4.49156406748746E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.83356133150934797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>298</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>3.397172822617419E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.86753305973552219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>229</v>
-      </c>
-      <c r="B12" s="2">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>2.610579115367077E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.89363885088919293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>189</v>
-      </c>
-      <c r="B13" s="2">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>2.1545827633378933E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9151846785225719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>146</v>
-      </c>
-      <c r="B14" s="2">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2">
-        <v>65</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6643866849065207E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.93182854537163706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2">
-        <v>70</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>1.151390788873689E-2</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.94334245326037391</v>
-      </c>
-      <c r="F15" s="6">
-        <f>E15-E3</f>
-        <v>0.93274053807569535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>88</v>
-      </c>
-      <c r="B16" s="2">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0031919744642043E-2</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95337437300501593</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2">
-        <v>80</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4979480164158686E-3</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95987232102143183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2">
-        <v>80</v>
-      </c>
-      <c r="C18" s="2">
-        <v>85</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>5.8139534883720929E-3</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>0.96568627450980393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2">
-        <v>90</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>4.4459644322845417E-3</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97013223894208844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>5.1299589603283173E-3</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97526219790241675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>95</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9639762881896944E-3</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.97822617419060642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>160</v>
-      </c>
-      <c r="B22" s="2">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2">
-        <v>150</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>1.823985408116735E-2</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99646602827177377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2">
-        <v>150</v>
-      </c>
-      <c r="C23" s="2">
-        <v>200</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>1.823985408116735E-3</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99829001367989045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
-        <v>200</v>
-      </c>
-      <c r="C24" s="2">
-        <v>250</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0259917920656635E-3</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99931600547195609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
-        <v>250</v>
-      </c>
-      <c r="C25" s="2">
-        <v>300</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>6.8399452804377564E-4</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>300</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <f>SUM(A2:A26)</f>
-        <v>8772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
@@ -8555,165 +8000,523 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="20"/>
+    <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <f>A2/$A$27</f>
+        <v>5.699954400364797E-4</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2</f>
+        <v>5.699954400364797E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D26" si="0">A3/$A$27</f>
+        <v>1.0031919744642043E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <f>E2+D3</f>
+        <v>1.0601915184678522E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>994</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11331509347925217</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E26" si="1">E3+D4</f>
+        <v>0.1239170086639307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1623</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18502051983584131</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.30893752849977202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>1556</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1773825809393525</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48632010943912451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13440492476060192</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.62072503419972647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>873</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>9.9521203830369359E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7202462380300958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>600</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8399452804377564E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78864569083447333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>394</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.49156406748746E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.83356133150934797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>298</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.397172822617419E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.86753305973552219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.610579115367077E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.89363885088919293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1545827633378933E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.9151846785225719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6643866849065207E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.93182854537163706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.151390788873689E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.94334245326037391</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15-E3</f>
+        <v>0.93274053807569535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2">
+        <v>75</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0031919744642043E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95337437300501593</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.4979480164158686E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95987232102143183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2">
+        <v>85</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8139534883720929E-3</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.96568627450980393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4459644322845417E-3</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.97013223894208844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2">
+        <v>95</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1299589603283173E-3</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.97526219790241675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="B21" s="2">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9639762881896944E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.97822617419060642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>160</v>
+      </c>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>150</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.823985408116735E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99646602827177377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2">
+        <v>200</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>1.823985408116735E-3</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99829001367989045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>200</v>
+      </c>
+      <c r="C24" s="2">
+        <v>250</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0259917920656635E-3</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99931600547195609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>250</v>
+      </c>
+      <c r="C25" s="2">
+        <v>300</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8399452804377564E-4</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="B26" s="2">
+        <v>300</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>82.19310344827575</v>
-      </c>
-      <c r="C3" s="20">
-        <v>40.299999999999898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22">
-        <v>33.594444444444406</v>
-      </c>
-      <c r="C4" s="22">
-        <v>126.59999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22">
-        <v>24.423726114649682</v>
-      </c>
-      <c r="C5" s="22">
-        <v>39.337795275590501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22">
-        <v>33.874574468085072</v>
-      </c>
-      <c r="C6" s="22">
-        <v>44.401030927834981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22">
-        <v>30.676016027475619</v>
-      </c>
-      <c r="C7" s="22">
-        <v>24.26976744186042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22">
-        <v>34.334515935057183</v>
-      </c>
-      <c r="C8" s="22">
-        <v>36.9414634146341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22">
-        <v>31.336733970952924</v>
-      </c>
-      <c r="C9" s="22">
-        <v>25.581481481481458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22">
-        <v>34.913707865168476</v>
-      </c>
-      <c r="C10" s="22">
-        <v>40.054999999999978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22">
-        <v>32.199999999999946</v>
-      </c>
-      <c r="C11" s="22">
-        <v>33.37777777777773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22">
-        <v>30.480176211453731</v>
-      </c>
-      <c r="C12" s="22">
-        <v>30.728571428571392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f>SUM(A2:A26)</f>
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8726,7 +8529,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>
@@ -8735,28 +8538,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11">

--- a/Data/绍兴市雷电公报图表.xlsx
+++ b/Data/绍兴市雷电公报图表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="-30" windowWidth="7455" windowHeight="4920"/>
+    <workbookView xWindow="456" yWindow="-36" windowWidth="7452" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="省地区" sheetId="7" r:id="rId1"/>
@@ -825,12 +825,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-805773744"/>
-        <c:axId val="-805774832"/>
+        <c:axId val="163043968"/>
+        <c:axId val="163734272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-805773744"/>
+        <c:axId val="163043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805774832"/>
+        <c:crossAx val="163734272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805774832"/>
+        <c:axId val="163734272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -925,7 +925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805773744"/>
+        <c:crossAx val="163043968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,8 +1234,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="-805775920"/>
-        <c:axId val="-805775376"/>
+        <c:axId val="163651584"/>
+        <c:axId val="163653504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1351,11 +1351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-805780816"/>
-        <c:axId val="-805774288"/>
+        <c:axId val="163661312"/>
+        <c:axId val="163659776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-805775920"/>
+        <c:axId val="163651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805775376"/>
+        <c:crossAx val="163653504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805775376"/>
+        <c:axId val="163653504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1478,14 +1478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805775920"/>
+        <c:crossAx val="163651584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-805774288"/>
+        <c:axId val="163659776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1507,14 +1507,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805780816"/>
+        <c:crossAx val="163661312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-805780816"/>
+        <c:axId val="163661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-805774288"/>
+        <c:crossAx val="163659776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1662,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1746,12 +1745,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-805779728"/>
-        <c:axId val="-805778640"/>
+        <c:axId val="163862400"/>
+        <c:axId val="163863936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-805779728"/>
+        <c:axId val="163862400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-805778640"/>
+        <c:crossAx val="163863936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805778640"/>
+        <c:axId val="163863936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,14 +1780,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-805779728"/>
+        <c:crossAx val="163862400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2199,12 +2198,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-805772656"/>
-        <c:axId val="-805769392"/>
+        <c:axId val="163793152"/>
+        <c:axId val="163803520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-805772656"/>
+        <c:axId val="163793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2243,7 +2241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805769392"/>
+        <c:crossAx val="163803520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2251,7 +2249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805769392"/>
+        <c:axId val="163803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -2310,7 +2308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805772656"/>
+        <c:crossAx val="163793152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2892,11 +2890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-805771024"/>
-        <c:axId val="-805783536"/>
+        <c:axId val="164146560"/>
+        <c:axId val="164156928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-805771024"/>
+        <c:axId val="164146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -2972,13 +2970,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805783536"/>
+        <c:crossAx val="164156928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-805783536"/>
+        <c:axId val="164156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3071,7 +3069,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805771024"/>
+        <c:crossAx val="164146560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3431,8 +3429,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="-805777008"/>
-        <c:axId val="-805776464"/>
+        <c:axId val="163829632"/>
+        <c:axId val="172491136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3583,11 +3581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-805771568"/>
-        <c:axId val="-805780272"/>
+        <c:axId val="164499840"/>
+        <c:axId val="172493056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-805777008"/>
+        <c:axId val="163829632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805776464"/>
+        <c:crossAx val="172491136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3659,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-805776464"/>
+        <c:axId val="172491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3714,13 +3712,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805777008"/>
+        <c:crossAx val="163829632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-805780272"/>
+        <c:axId val="172493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3767,13 +3765,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805771568"/>
+        <c:crossAx val="164499840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-805771568"/>
+        <c:axId val="164499840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +3780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-805780272"/>
+        <c:crossAx val="172493056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4113,8 +4111,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="-805781904"/>
-        <c:axId val="-804616208"/>
+        <c:axId val="164399744"/>
+        <c:axId val="164406400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4265,11 +4263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-804609136"/>
-        <c:axId val="-804610768"/>
+        <c:axId val="164418688"/>
+        <c:axId val="164408320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-805781904"/>
+        <c:axId val="164399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,7 +4331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804616208"/>
+        <c:crossAx val="164406400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4341,7 +4339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804616208"/>
+        <c:axId val="164406400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,12 +4392,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-805781904"/>
+        <c:crossAx val="164399744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-804610768"/>
+        <c:axId val="164408320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4446,13 +4444,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804609136"/>
+        <c:crossAx val="164418688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-804609136"/>
+        <c:axId val="164418688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +4459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-804610768"/>
+        <c:crossAx val="164408320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5134,12 +5132,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="-804609680"/>
-        <c:axId val="-804624368"/>
+        <c:axId val="164317440"/>
+        <c:axId val="164336000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-804609680"/>
+        <c:axId val="164317440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5161,7 +5159,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5178,7 +5175,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804624368"/>
+        <c:crossAx val="164336000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5186,7 +5183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804624368"/>
+        <c:axId val="164336000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -5234,7 +5231,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804609680"/>
+        <c:crossAx val="164317440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5595,7 +5592,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5637,7 +5634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5672,7 +5669,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5888,15 +5885,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="11"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -6430,15 +6427,15 @@
       <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="29" t="s">
         <v>38</v>
       </c>
@@ -6784,7 +6781,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>
@@ -7244,10 +7241,10 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="9.875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="20" customWidth="1"/>
     <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -7411,9 +7408,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -8007,7 +8004,7 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
@@ -8529,7 +8526,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>

--- a/Data/绍兴市雷电公报图表.xlsx
+++ b/Data/绍兴市雷电公报图表.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="-36" windowWidth="7452" windowHeight="4920"/>
+    <workbookView xWindow="450" yWindow="-30" windowWidth="7455" windowHeight="4920" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="省地区" sheetId="7" r:id="rId1"/>
+    <sheet name="省分区" sheetId="7" r:id="rId1"/>
     <sheet name="市分区" sheetId="8" r:id="rId2"/>
-    <sheet name="月份" sheetId="6" r:id="rId3"/>
-    <sheet name="地闪强度波动" sheetId="9" r:id="rId4"/>
-    <sheet name="正" sheetId="1" r:id="rId5"/>
-    <sheet name="负" sheetId="5" r:id="rId6"/>
+    <sheet name="分月地闪次数统计" sheetId="6" r:id="rId3"/>
+    <sheet name="分月地闪强度统计" sheetId="9" r:id="rId4"/>
+    <sheet name="负闪强度分布" sheetId="5" r:id="rId5"/>
+    <sheet name="正闪强度分布" sheetId="1" r:id="rId6"/>
     <sheet name="时段" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
-  <si>
-    <t>Expr1000</t>
-  </si>
-  <si>
-    <t>时</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>总闪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,9 +263,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -423,7 +421,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,9 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -733,7 +728,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>省地区!$B$2:$B$12</c:f>
+              <c:f>省分区!$B$2:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -774,7 +769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>省地区!$A$2:$A$12</c:f>
+              <c:f>省分区!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -825,12 +820,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="163043968"/>
-        <c:axId val="163734272"/>
+        <c:axId val="620949264"/>
+        <c:axId val="620950352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="163043968"/>
+        <c:axId val="620949264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +864,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163734272"/>
+        <c:crossAx val="620950352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163734272"/>
+        <c:axId val="620950352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -925,7 +920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163043968"/>
+        <c:crossAx val="620949264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1143,7 +1138,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>省地区!$B$2:$B$12</c:f>
+              <c:f>省分区!$B$2:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1184,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>省地区!$D$2:$D$12</c:f>
+              <c:f>省分区!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1234,8 +1229,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="163651584"/>
-        <c:axId val="163653504"/>
+        <c:axId val="620943280"/>
+        <c:axId val="620944368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1258,7 +1253,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>省地区!$B$2:$B$12</c:f>
+              <c:f>省分区!$B$2:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1299,7 +1294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>省地区!$G$2:$G$12</c:f>
+              <c:f>省分区!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1351,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163661312"/>
-        <c:axId val="163659776"/>
+        <c:axId val="620950896"/>
+        <c:axId val="620938928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163651584"/>
+        <c:axId val="620943280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163653504"/>
+        <c:crossAx val="620944368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163653504"/>
+        <c:axId val="620944368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1478,14 +1473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163651584"/>
+        <c:crossAx val="620943280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163659776"/>
+        <c:axId val="620938928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1507,14 +1502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163661312"/>
+        <c:crossAx val="620950896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="163661312"/>
+        <c:axId val="620950896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163659776"/>
+        <c:crossAx val="620938928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,6 +1657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1745,13 +1741,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163862400"/>
-        <c:axId val="163863936"/>
+        <c:axId val="620939472"/>
+        <c:axId val="620946544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163862400"/>
+        <c:axId val="620939472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163863936"/>
+        <c:crossAx val="620946544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163863936"/>
+        <c:axId val="620946544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,13 +1775,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163862400"/>
+        <c:crossAx val="620939472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1890,7 +1886,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>月份!$D$2:$D$13</c:f>
+              <c:f>分月地闪次数统计!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1935,7 +1931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>月份!$A$2:$A$13</c:f>
+              <c:f>分月地闪次数统计!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1993,7 +1989,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>月份!$D$2:$D$13</c:f>
+              <c:f>分月地闪次数统计!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2038,7 +2034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>月份!$B$2:$B$13</c:f>
+              <c:f>分月地闪次数统计!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2099,7 +2095,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>月份!$D$2:$D$13</c:f>
+              <c:f>分月地闪次数统计!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2144,7 +2140,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>月份!$C$2:$C$13</c:f>
+              <c:f>分月地闪次数统计!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2198,12 +2194,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="163793152"/>
-        <c:axId val="163803520"/>
+        <c:axId val="685634800"/>
+        <c:axId val="685640240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="163793152"/>
+        <c:axId val="685634800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,6 +2221,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2241,7 +2238,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163803520"/>
+        <c:crossAx val="685640240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163803520"/>
+        <c:axId val="685640240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -2308,7 +2305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163793152"/>
+        <c:crossAx val="685634800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2446,7 +2443,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>地闪强度波动!$B$1</c:f>
+              <c:f>分月地闪强度统计!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +2579,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>地闪强度波动!$A$2:$A$13</c:f>
+              <c:f>分月地闪强度统计!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2627,7 +2624,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>地闪强度波动!$B$2:$B$13</c:f>
+              <c:f>分月地闪强度统计!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2677,7 +2674,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>地闪强度波动!$C$1</c:f>
+              <c:f>分月地闪强度统计!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2792,7 +2789,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>地闪强度波动!$A$2:$A$13</c:f>
+              <c:f>分月地闪强度统计!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2837,7 +2834,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>地闪强度波动!$C$2:$C$13</c:f>
+              <c:f>分月地闪强度统计!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2890,11 +2887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164146560"/>
-        <c:axId val="164156928"/>
+        <c:axId val="685639696"/>
+        <c:axId val="685644592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164146560"/>
+        <c:axId val="685639696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -2970,13 +2967,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164156928"/>
+        <c:crossAx val="685644592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164156928"/>
+        <c:axId val="685644592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3069,7 +3066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164146560"/>
+        <c:crossAx val="685639696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,7 +3184,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-              <a:t>年绍兴市正地闪强度分布</a:t>
+              <a:t>年绍兴市负地闪强度分布</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3209,9 +3206,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9589232836604402E-2"/>
+          <c:x val="0.11159680140675875"/>
           <c:y val="0.13970180691613163"/>
-          <c:w val="0.80671540611379533"/>
+          <c:w val="0.78177344594278664"/>
           <c:h val="0.69181882141040862"/>
         </c:manualLayout>
       </c:layout>
@@ -3253,7 +3250,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>正!$B$2:$B$26</c:f>
+              <c:f>负闪强度分布!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3337,84 +3334,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>正!$A$2:$A$26</c:f>
+              <c:f>负闪强度分布!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>1556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>1179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,8 +3426,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="163829632"/>
-        <c:axId val="172491136"/>
+        <c:axId val="685646768"/>
+        <c:axId val="685641872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3487,84 +3484,84 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>正!$E$2:$E$26</c:f>
+              <c:f>负闪强度分布!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>5.699954400364797E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10600000000000001</c:v>
+                  <c:v>1.0601915184678522E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23</c:v>
+                  <c:v>0.1239170086639307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.30893752849977202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>0.48632010943912451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58800000000000008</c:v>
+                  <c:v>0.62072503419972647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65400000000000014</c:v>
+                  <c:v>0.7202462380300958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70400000000000018</c:v>
+                  <c:v>0.78864569083447333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75800000000000023</c:v>
+                  <c:v>0.83356133150934797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81400000000000028</c:v>
+                  <c:v>0.86753305973552219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85200000000000031</c:v>
+                  <c:v>0.89363885088919293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87800000000000034</c:v>
+                  <c:v>0.9151846785225719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88600000000000034</c:v>
+                  <c:v>0.93182854537163706</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91000000000000036</c:v>
+                  <c:v>0.94334245326037391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91400000000000037</c:v>
+                  <c:v>0.95337437300501593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92400000000000038</c:v>
+                  <c:v>0.95987232102143183</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93200000000000038</c:v>
+                  <c:v>0.96568627450980393</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94000000000000039</c:v>
+                  <c:v>0.97013223894208844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9460000000000004</c:v>
+                  <c:v>0.97526219790241675</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9500000000000004</c:v>
+                  <c:v>0.97822617419060642</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98600000000000043</c:v>
+                  <c:v>0.99646602827177377</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99200000000000044</c:v>
+                  <c:v>0.99829001367989045</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99400000000000044</c:v>
+                  <c:v>0.99931600547195609</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99800000000000044</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0000000000000004</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,11 +3578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164499840"/>
-        <c:axId val="172493056"/>
+        <c:axId val="685645136"/>
+        <c:axId val="685648944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163829632"/>
+        <c:axId val="685646768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172491136"/>
+        <c:crossAx val="685641872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3657,18 +3654,16 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172491136"/>
+        <c:axId val="685641872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -3692,8 +3687,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0373600375112361E-2"/>
-              <c:y val="0.31651208084925847"/>
+              <c:x val="1.7310819308498017E-2"/>
+              <c:y val="0.33908361598531861"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3712,13 +3707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163829632"/>
+        <c:crossAx val="685646768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172493056"/>
+        <c:axId val="685648944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3746,7 +3740,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.94317707584532473"/>
-              <c:y val="0.31667863795892387"/>
+              <c:y val="0.32957665803667252"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3765,13 +3759,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164499840"/>
+        <c:crossAx val="685645136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164499840"/>
+        <c:axId val="685645136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,7 +3774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172493056"/>
+        <c:crossAx val="685648944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3794,7 +3788,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11489400147964872"/>
+          <c:x val="0.11350655769297156"/>
           <c:y val="0.90478950710520956"/>
           <c:w val="0.22925236225960624"/>
           <c:h val="7.8770595256321491E-2"/>
@@ -3869,7 +3863,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-              <a:t>年绍兴市负地闪强度分布</a:t>
+              <a:t>年绍兴市正地闪强度分布</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3891,9 +3885,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11159680140675875"/>
+          <c:x val="8.9589232836604402E-2"/>
           <c:y val="0.13970180691613163"/>
-          <c:w val="0.78177344594278664"/>
+          <c:w val="0.80671540611379533"/>
           <c:h val="0.69181882141040862"/>
         </c:manualLayout>
       </c:layout>
@@ -3935,7 +3929,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>负!$B$2:$B$26</c:f>
+              <c:f>正闪强度分布!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4019,84 +4013,84 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>负!$A$2:$A$26</c:f>
+              <c:f>正闪强度分布!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1623</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1556</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>873</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>57</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,8 +4105,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="164399744"/>
-        <c:axId val="164406400"/>
+        <c:axId val="685638608"/>
+        <c:axId val="685648400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4169,84 +4163,84 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>负!$E$2:$E$26</c:f>
+              <c:f>正闪强度分布!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.699954400364797E-4</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0601915184678522E-2</c:v>
+                  <c:v>0.10600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1239170086639307</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30893752849977202</c:v>
+                  <c:v>0.34200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48632010943912451</c:v>
+                  <c:v>0.46800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62072503419972647</c:v>
+                  <c:v>0.58800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7202462380300958</c:v>
+                  <c:v>0.65400000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78864569083447333</c:v>
+                  <c:v>0.70400000000000018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83356133150934797</c:v>
+                  <c:v>0.75800000000000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86753305973552219</c:v>
+                  <c:v>0.81400000000000028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89363885088919293</c:v>
+                  <c:v>0.85200000000000031</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9151846785225719</c:v>
+                  <c:v>0.87800000000000034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93182854537163706</c:v>
+                  <c:v>0.88600000000000034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94334245326037391</c:v>
+                  <c:v>0.91000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95337437300501593</c:v>
+                  <c:v>0.91400000000000037</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95987232102143183</c:v>
+                  <c:v>0.92400000000000038</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96568627450980393</c:v>
+                  <c:v>0.93200000000000038</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97013223894208844</c:v>
+                  <c:v>0.94000000000000039</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97526219790241675</c:v>
+                  <c:v>0.9460000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.97822617419060642</c:v>
+                  <c:v>0.9500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99646602827177377</c:v>
+                  <c:v>0.98600000000000043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99829001367989045</c:v>
+                  <c:v>0.99200000000000044</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99931600547195609</c:v>
+                  <c:v>0.99400000000000044</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>0.99800000000000044</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1.0000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,11 +4257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164418688"/>
-        <c:axId val="164408320"/>
+        <c:axId val="685637520"/>
+        <c:axId val="685640784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164399744"/>
+        <c:axId val="685638608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164406400"/>
+        <c:crossAx val="685648400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4339,16 +4333,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164406400"/>
+        <c:axId val="685648400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
-              <a:prstDash val="dashDot"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
@@ -4372,8 +4368,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.7310819308498017E-2"/>
-              <c:y val="0.33908361598531861"/>
+              <c:x val="1.0373600375112361E-2"/>
+              <c:y val="0.31651208084925847"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4392,12 +4388,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164399744"/>
+        <c:crossAx val="685638608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164408320"/>
+        <c:axId val="685640784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4425,7 +4422,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.94317707584532473"/>
-              <c:y val="0.32957665803667252"/>
+              <c:y val="0.31667863795892387"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4444,13 +4441,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164418688"/>
+        <c:crossAx val="685637520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="164418688"/>
+        <c:axId val="685637520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +4456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164408320"/>
+        <c:crossAx val="685640784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4473,7 +4470,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11350655769297156"/>
+          <c:x val="0.11489400147964872"/>
           <c:y val="0.90478950710520956"/>
           <c:w val="0.22925236225960624"/>
           <c:h val="7.8770595256321491E-2"/>
@@ -4608,7 +4605,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>时段!$D$2:$D$25</c:f>
+              <c:f>时段!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4689,81 +4686,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时段!$A$2:$A$25</c:f>
+              <c:f>时段!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1160</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>317</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>337</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>308</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>513</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>776</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1160</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4161</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3509</c:v>
+                  <c:v>1253</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2594</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1814</c:v>
+                  <c:v>1133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1414</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>963</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>735</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>749</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>641</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,7 +4780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>时段!$D$2:$D$25</c:f>
+              <c:f>时段!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4864,7 +4861,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>时段!$B$2:$B$25</c:f>
+              <c:f>时段!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4961,162 +4958,162 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
+              <c:f>时段!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>时段!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>1171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>时段!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1119</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4075</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2536</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1755</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1379</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>607</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,12 +5129,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="164317440"/>
-        <c:axId val="164336000"/>
+        <c:axId val="685643504"/>
+        <c:axId val="685644048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="164317440"/>
+        <c:axId val="685643504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5159,6 +5156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5175,7 +5173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164336000"/>
+        <c:crossAx val="685644048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5183,7 +5181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164336000"/>
+        <c:axId val="685644048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -5231,7 +5229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164317440"/>
+        <c:crossAx val="685643504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5488,41 +5486,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76479</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>32049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -5556,20 +5519,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5592,7 +5590,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5634,7 +5632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5669,7 +5667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5881,47 +5879,47 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="11"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="12.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>15616</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10">
         <v>16596</v>
@@ -5944,15 +5942,15 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>19374</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <v>9365</v>
@@ -5977,11 +5975,11 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>12942</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10">
         <v>11784</v>
@@ -6006,11 +6004,11 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>3011</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10">
         <v>5794</v>
@@ -6035,11 +6033,11 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>4161</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10">
         <v>3915</v>
@@ -6064,11 +6062,11 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>9272</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="10">
         <v>8256</v>
@@ -6093,11 +6091,11 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>19839</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10">
         <v>10919</v>
@@ -6122,11 +6120,11 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>17398</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10">
         <v>8837</v>
@@ -6151,11 +6149,11 @@
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>1598</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10">
         <v>1440</v>
@@ -6180,11 +6178,11 @@
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>25476</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10">
         <v>9413</v>
@@ -6209,11 +6207,11 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>16926</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10">
         <v>17298</v>
@@ -6238,14 +6236,14 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <f>SUM(A2:A12)</f>
         <v>145613</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="B13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="33">
         <f>SUM(C2:C12)</f>
         <v>103617</v>
       </c>
@@ -6261,45 +6259,45 @@
     </row>
     <row r="16" spans="1:26">
       <c r="C16" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="G16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="I16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="L16" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <f>A2</f>
@@ -6352,64 +6350,64 @@
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="19">
+        <v>44</v>
+      </c>
+      <c r="C18" s="18">
         <f>D2</f>
         <v>0.94094962641600388</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f>D3</f>
         <v>2.0687666844634278</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>D4</f>
         <v>1.0982688391038697</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f>D5</f>
         <v>0.51967552640662751</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f>D6</f>
         <v>1.0628352490421455</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f>D7</f>
         <v>1.123062015503876</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f>D8</f>
         <v>1.8169246267973258</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <f>D9</f>
         <v>1.9687676813398212</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <f>D10</f>
         <v>1.1097222222222223</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <f>D11</f>
         <v>2.7064697758419207</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <f>D12</f>
         <v>0.978494623655914</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f>D13</f>
         <v>1.4053002885626875</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="30" customFormat="1">
-      <c r="E20" s="31"/>
+      <c r="A19" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="29" customFormat="1">
+      <c r="E20" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6421,106 +6419,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8">
-      <c r="A1" s="29" t="s">
-        <v>38</v>
+    <row r="1" spans="1:6" ht="27">
+      <c r="A1" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="24">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="24">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="25">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="25">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>1970</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="24">
         <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="24">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="24">
         <v>4788</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="C9" s="25"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28" t="s">
-        <v>39</v>
+      <c r="A10" s="27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <f>C7</f>
@@ -6541,7 +6540,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <f>C3</f>
@@ -6562,7 +6561,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <f>C4</f>
@@ -6583,7 +6582,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <f>C8</f>
@@ -6604,7 +6603,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <f>C5</f>
@@ -6625,7 +6624,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <f>C6</f>
@@ -6646,7 +6645,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <f>SUM(B12:B17)</f>
@@ -6667,37 +6666,37 @@
       <c r="F18" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
-        <v>40</v>
+      <c r="A20" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="E21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="27" t="s">
+      <c r="G21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="27" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="B22">
         <f>B12</f>
@@ -6729,34 +6728,34 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="22">
+      <c r="A23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="21">
         <f>D12</f>
         <v>0.21285140562248997</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <f>D13</f>
         <v>0.46781940441882808</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f>D14</f>
         <v>0.39985744832501779</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <f>D15</f>
         <v>2.0718303764604067</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <f>D16</f>
         <v>1.1005586592178771</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <f>D17</f>
         <v>1.1211871393239901</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <f>D18</f>
         <v>1.123062015503876</v>
       </c>
@@ -6778,10 +6777,10 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>
@@ -6790,16 +6789,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -6967,7 +6966,7 @@
         <f>E7+E8+E9</f>
         <v>0.69618205349439177</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -7148,7 +7147,7 @@
         <v>8772</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="11">
         <f>SUM(E2:E13)</f>
@@ -7235,159 +7234,160 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="9.88671875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="9.875" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>0</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>82.193103448275849</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>40.299999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>33.594444444444441</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>126.60000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>24.423726114649703</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>39.337795275590544</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>33.874574468085086</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>44.401030927835045</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>30.676016027475626</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>24.269767441860463</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>34.334515935057127</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>36.94146341463415</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>31.336733970952888</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>25.581481481481479</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>34.91370786516854</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>40.054999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>32.199999999999996</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>33.377777777777773</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>30.480176211453752</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>30.728571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>0</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>0</v>
       </c>
     </row>
@@ -7401,590 +7401,516 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J28"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="6">
         <f>A2/$A$27</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.699954400364797E-4</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4">
+        <v>5.699954400364797E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="0">A3/$A$27</f>
-        <v>0.1</v>
+        <v>1.0031919744642043E-2</v>
       </c>
       <c r="E3" s="6">
         <f>E2+D3</f>
-        <v>0.10600000000000001</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4">
+        <v>1.0601915184678522E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>994</v>
+      </c>
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>15</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>0.124</v>
+        <v>0.11331509347925217</v>
       </c>
       <c r="E4" s="6">
-        <f>E3+D4</f>
-        <v>0.23</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
-        <v>56</v>
-      </c>
-      <c r="B5" s="4">
+        <f t="shared" ref="E4:E26" si="1">E3+D4</f>
+        <v>0.1239170086639307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>1623</v>
+      </c>
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>20</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.112</v>
+        <v>0.18502051983584131</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E25" si="1">E4+D5</f>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4">
-        <v>63</v>
-      </c>
-      <c r="B6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30893752849977202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>1556</v>
+      </c>
+      <c r="B6" s="2">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>25</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.126</v>
+        <v>0.1773825809393525</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4">
+        <v>0.48632010943912451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B7" s="2">
         <v>25</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.13440492476060192</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.58800000000000008</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4">
+        <v>0.62072503419972647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>873</v>
+      </c>
+      <c r="B8" s="2">
         <v>30</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>35</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <v>9.9521203830369359E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.65400000000000014</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4">
+        <v>0.7202462380300958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>600</v>
+      </c>
+      <c r="B9" s="2">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>40</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>6.8399452804377564E-2</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.70400000000000018</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
+        <v>0.78864569083447333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>394</v>
+      </c>
+      <c r="B10" s="2">
         <v>40</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>45</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
+        <v>4.49156406748746E-2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.75800000000000023</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
+        <v>0.83356133150934797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>298</v>
+      </c>
+      <c r="B11" s="2">
         <v>45</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>50</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>5.6000000000000001E-2</v>
+        <v>3.397172822617419E-2</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.81400000000000028</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
+        <v>0.86753305973552219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>55</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>3.7999999999999999E-2</v>
+        <v>2.610579115367077E-2</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.85200000000000031</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
+        <v>0.89363885088919293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2">
         <v>55</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>60</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>2.5999999999999999E-2</v>
+        <v>2.1545827633378933E-2</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.87800000000000034</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4">
+        <v>0.9151846785225719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2">
         <v>60</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>65</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6643866849065207E-2</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.88600000000000034</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
+        <v>0.93182854537163706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2">
         <v>65</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>70</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>1.151390788873689E-2</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.91000000000000036</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
+        <v>0.94334245326037391</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15-E3</f>
+        <v>0.93274053807569535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2">
         <v>70</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>75</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>1.0031919744642043E-2</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0.91400000000000037</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4">
+        <v>0.95337437300501593</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
         <v>75</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>80</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>6.4979480164158686E-3</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0.92400000000000038</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4">
+        <v>0.95987232102143183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
         <v>80</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>85</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0.93200000000000038</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4">
+        <v>0.96568627450980393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
         <v>85</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>90</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>4.4459644322845417E-3</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>0.94000000000000039</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
+        <v>0.97013223894208844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
         <v>90</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>95</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>5.1299589603283173E-3</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0.9460000000000004</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
+        <v>0.97526219790241675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
         <v>95</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>100</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2.9639762881896944E-3</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0.9500000000000004</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4">
+        <v>0.97822617419060642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>160</v>
+      </c>
+      <c r="B22" s="2">
         <v>100</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>150</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.823985408116735E-2</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>0.98600000000000043</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="4">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4">
+        <v>0.99646602827177377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
         <v>150</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>200</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.823985408116735E-3</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>0.99200000000000044</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
+        <v>0.99829001367989045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
         <v>200</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>250</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>1.0259917920656635E-3</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>0.99400000000000044</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
+        <v>0.99931600547195609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
         <v>250</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>300</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>6.8399452804377564E-4</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>0.99800000000000044</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
         <v>300</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>1000</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
-        <f>E25+D26</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <f>SUM(A2:A26)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
@@ -7997,516 +7923,590 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F28"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
       <c r="D2" s="6">
         <f>A2/$A$27</f>
-        <v>5.699954400364797E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>5.699954400364797E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="0">A3/$A$27</f>
-        <v>1.0031919744642043E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="6">
         <f>E2+D3</f>
-        <v>1.0601915184678522E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>994</v>
-      </c>
-      <c r="B4" s="2">
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>0.11331509347925217</v>
+        <v>0.124</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E26" si="1">E3+D4</f>
-        <v>0.1239170086639307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>1623</v>
-      </c>
-      <c r="B5" s="2">
+        <f>E3+D4</f>
+        <v>0.23</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0.18502051983584131</v>
+        <v>0.112</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.30893752849977202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>1556</v>
-      </c>
-      <c r="B6" s="2">
+        <f t="shared" ref="E5:E25" si="1">E4+D5</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>25</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.1773825809393525</v>
+        <v>0.126</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.48632010943912451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>1179</v>
-      </c>
-      <c r="B7" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>30</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.13440492476060192</v>
+        <v>0.12</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.62072503419972647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>873</v>
-      </c>
-      <c r="B8" s="2">
+        <v>0.58800000000000008</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>35</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>9.9521203830369359E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.7202462380300958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>600</v>
-      </c>
-      <c r="B9" s="2">
+        <v>0.65400000000000014</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4">
         <v>35</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>40</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>6.8399452804377564E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.78864569083447333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>394</v>
-      </c>
-      <c r="B10" s="2">
+        <v>0.70400000000000018</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
         <v>40</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>45</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>4.49156406748746E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.83356133150934797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>298</v>
-      </c>
-      <c r="B11" s="2">
+        <v>0.75800000000000023</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
         <v>45</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>3.397172822617419E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.86753305973552219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>229</v>
-      </c>
-      <c r="B12" s="2">
+        <v>0.81400000000000028</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
         <v>50</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>55</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>2.610579115367077E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.89363885088919293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>189</v>
-      </c>
-      <c r="B13" s="2">
+        <v>0.85200000000000031</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
         <v>55</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>60</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>2.1545827633378933E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.9151846785225719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>146</v>
-      </c>
-      <c r="B14" s="2">
+        <v>0.87800000000000034</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
         <v>60</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>65</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>1.6643866849065207E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.93182854537163706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2">
+        <v>0.88600000000000034</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
         <v>65</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>70</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>1.151390788873689E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.94334245326037391</v>
-      </c>
-      <c r="F15" s="6">
-        <f>E15-E3</f>
-        <v>0.93274053807569535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>88</v>
-      </c>
-      <c r="B16" s="2">
+        <v>0.91000000000000036</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
         <v>70</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>75</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>1.0031919744642043E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0.95337437300501593</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2">
+        <v>0.91400000000000037</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
         <v>75</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>80</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>6.4979480164158686E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0.95987232102143183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2">
+        <v>0.92400000000000038</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
         <v>80</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>85</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
-        <v>5.8139534883720929E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0.96568627450980393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
+        <v>0.93200000000000038</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
         <v>85</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>90</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>4.4459644322845417E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>0.97013223894208844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2">
+        <v>0.94000000000000039</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
         <v>90</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>95</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
-        <v>5.1299589603283173E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0.97526219790241675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
+        <v>0.9460000000000004</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
         <v>95</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>100</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
-        <v>2.9639762881896944E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0.97822617419060642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>160</v>
-      </c>
-      <c r="B22" s="2">
+        <v>0.9500000000000004</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
         <v>100</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>150</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
-        <v>1.823985408116735E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>0.99646602827177377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2">
+        <v>0.98600000000000043</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
         <v>150</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>200</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
-        <v>1.823985408116735E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>0.99829001367989045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2">
+        <v>0.99200000000000044</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
         <v>200</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>250</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
-        <v>1.0259917920656635E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>0.99931600547195609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
+        <v>0.99400000000000044</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
         <v>250</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>300</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>6.8399452804377564E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
+        <v>0.99800000000000044</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
         <v>300</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>1000</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <f>E25+D26</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f>SUM(A2:A26)</f>
-        <v>8772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
@@ -8520,902 +8520,595 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="9"/>
     <col min="5" max="5" width="9" style="11"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="9">
-        <f>B2+C2</f>
-        <v>250</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
+        <f>C2+D2</f>
+        <v>175</v>
+      </c>
+      <c r="C2" s="10">
         <v>18</v>
       </c>
-      <c r="C2" s="8">
-        <v>232</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
+      <c r="D2" s="8">
+        <v>157</v>
       </c>
       <c r="E2" s="11">
-        <f>A2/22713</f>
-        <v>1.1006912340950116E-2</v>
+        <f>B2/22713</f>
+        <v>7.7048386386650821E-3</v>
       </c>
       <c r="F2" s="11">
         <f>E2</f>
-        <v>1.1006912340950116E-2</v>
-      </c>
-      <c r="H2" s="17">
-        <v>232</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
-        <v>18</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="9">
-        <f t="shared" ref="A3:A25" si="0">B3+C3</f>
-        <v>169</v>
-      </c>
-      <c r="B3" s="10">
+        <v>7.7048386386650821E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B25" si="0">C3+D3</f>
+        <v>68</v>
+      </c>
+      <c r="C3" s="10">
         <v>37</v>
       </c>
-      <c r="C3" s="8">
-        <v>132</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
+      <c r="D3" s="8">
+        <v>31</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E25" si="1">A3/22713</f>
-        <v>7.4406727424822785E-3</v>
+        <f>B3/22713</f>
+        <v>2.9938801567384317E-3</v>
       </c>
       <c r="F3" s="11">
         <f>F2+E3</f>
-        <v>1.8447585083432395E-2</v>
-      </c>
-      <c r="H3" s="17">
-        <v>132</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <v>37</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="B4" s="10">
+        <v>1.0698718795403513E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
-        <v>232</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
+      <c r="D4" s="8">
+        <v>75</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="1"/>
-        <v>1.0610663496675913E-2</v>
+        <f>B4/22713</f>
+        <v>3.6983225465592393E-3</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F25" si="2">F3+E4</f>
-        <v>2.905824858010831E-2</v>
-      </c>
-      <c r="H4" s="17">
-        <v>232</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2</v>
-      </c>
-      <c r="J4" s="17">
+        <f t="shared" ref="F4:F25" si="1">F3+E4</f>
+        <v>1.4397041341962753E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="10">
         <v>9</v>
       </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9">
-        <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
-      <c r="B5" s="10">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>405</v>
-      </c>
-      <c r="D5" s="10">
-        <v>3</v>
+      <c r="D5" s="8">
+        <v>58</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="1"/>
-        <v>1.8227446836613394E-2</v>
+        <f>B5/22713</f>
+        <v>2.9498525073746312E-3</v>
       </c>
       <c r="F5" s="11">
         <f>F4+E5</f>
-        <v>4.7285695416721701E-2</v>
-      </c>
-      <c r="H5" s="17">
-        <v>405</v>
-      </c>
-      <c r="I5" s="8">
-        <v>3</v>
-      </c>
-      <c r="J5" s="17">
+        <v>1.7346893849337384E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C6" s="10">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8">
+        <v>85</v>
+      </c>
+      <c r="E6" s="11">
+        <f>B6/22713</f>
+        <v>5.5474838198388589E-3</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2894377669176243E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="C7" s="10">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8">
+        <v>160</v>
+      </c>
+      <c r="E7" s="11">
+        <f>B7/22713</f>
+        <v>7.8369215867564838E-3</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0731299255932727E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8">
+        <v>135</v>
+      </c>
+      <c r="E8" s="11">
+        <f>B8/22713</f>
+        <v>6.4720644564786687E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7203363712411397E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C9" s="10">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>127</v>
+      </c>
+      <c r="E9" s="11">
+        <f>B9/22713</f>
+        <v>6.4720644564786687E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>4.3675428168890064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>142</v>
+      </c>
+      <c r="E10" s="11">
+        <f>B10/22713</f>
+        <v>6.4720644564786687E-3</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>5.0147492625368731E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="K5" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9">
-        <f t="shared" si="0"/>
-        <v>1160</v>
-      </c>
-      <c r="B6" s="10">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1119</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11">
+        <f>B11/22713</f>
+        <v>3.3901290010126361E-3</v>
+      </c>
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>5.1072073262008542E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="2"/>
-        <v>9.8357768678730251E-2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1119</v>
-      </c>
-      <c r="I6" s="8">
-        <v>4</v>
-      </c>
-      <c r="J6" s="17">
-        <v>41</v>
-      </c>
-      <c r="K6" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="B7" s="10">
+        <v>5.3537621626381364E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11">
+        <f>B12/22713</f>
+        <v>1.981244221371021E-3</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5518865847752383E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>70</v>
+      </c>
+      <c r="E13" s="11">
+        <f>B13/22713</f>
+        <v>3.125963104829833E-3</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>5.8644828952582218E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="C14" s="10">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8">
+        <v>175</v>
+      </c>
+      <c r="E14" s="11">
+        <f>B14/22713</f>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>6.7494386474706111E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="C15" s="10">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8">
+        <v>382</v>
+      </c>
+      <c r="E15" s="11">
+        <f>B15/22713</f>
+        <v>1.7390921498701185E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>8.4885307973407292E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="C16" s="10">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8">
+        <v>736</v>
+      </c>
+      <c r="E16" s="11">
+        <f>B16/22713</f>
+        <v>3.398934530885396E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.11887465328226125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+      <c r="C17" s="10">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8">
+        <v>817</v>
+      </c>
+      <c r="E17" s="11">
+        <f>B17/22713</f>
+        <v>3.975696737551182E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>0.15863162065777309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="C18" s="10">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1171</v>
+      </c>
+      <c r="E18" s="11">
+        <f>B18/22713</f>
+        <v>5.5166644652841983E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.21379826531061508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
+        <v>1689</v>
+      </c>
+      <c r="C19" s="10">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1631</v>
+      </c>
+      <c r="E19" s="11">
+        <f>B19/22713</f>
+        <v>7.4362699775458993E-2</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.28816096508607408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
-        <v>231</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B20" s="9">
+        <f t="shared" si="0"/>
+        <v>1133</v>
+      </c>
+      <c r="C20" s="10">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1074</v>
+      </c>
+      <c r="E20" s="11">
+        <f>B20/22713</f>
+        <v>4.9883326729185926E-2</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
-        <v>1.0962884691586317E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="2"/>
-        <v>0.10932065337031657</v>
-      </c>
-      <c r="H7" s="17">
-        <v>231</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="17">
-        <v>18</v>
-      </c>
-      <c r="K7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B8" s="10">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
+        <v>0.33804429181526002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>697</v>
+      </c>
+      <c r="C21" s="10">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8">
+        <v>662</v>
+      </c>
+      <c r="E21" s="11">
+        <f>B21/22713</f>
+        <v>3.0687271606568926E-2</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
-        <v>2.4655483643728263E-3</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="2"/>
-        <v>0.11178620173468939</v>
-      </c>
-      <c r="H8" s="17">
-        <v>44</v>
-      </c>
-      <c r="I8" s="8">
-        <v>6</v>
-      </c>
-      <c r="J8" s="17">
-        <v>12</v>
-      </c>
-      <c r="K8" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9">
-        <f t="shared" si="0"/>
-        <v>317</v>
-      </c>
-      <c r="B9" s="10">
+        <v>0.36873156342182895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="C9" s="8">
-        <v>297</v>
-      </c>
-      <c r="D9" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="B22" s="9">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+      <c r="C22" s="10">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8">
+        <v>524</v>
+      </c>
+      <c r="E22" s="11">
+        <f>B22/22713</f>
+        <v>2.3907013604543653E-2</v>
+      </c>
+      <c r="F22" s="11">
         <f t="shared" si="1"/>
-        <v>1.3956764848324747E-2</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="2"/>
-        <v>0.12574296658301415</v>
-      </c>
-      <c r="H9" s="17">
-        <v>297</v>
-      </c>
-      <c r="I9" s="8">
-        <v>7</v>
-      </c>
-      <c r="J9" s="17">
-        <v>20</v>
-      </c>
-      <c r="K9" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9">
-        <f t="shared" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="B10" s="10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <v>332</v>
-      </c>
-      <c r="D10" s="10">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11">
+        <v>0.39263857702637261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="C23" s="10">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>184</v>
+      </c>
+      <c r="E23" s="11">
+        <f>B23/22713</f>
+        <v>8.9376128208514954E-3</v>
+      </c>
+      <c r="F23" s="11">
         <f t="shared" si="1"/>
-        <v>1.4837317835600758E-2</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="2"/>
-        <v>0.14058028441861492</v>
-      </c>
-      <c r="H10" s="17">
-        <v>332</v>
-      </c>
-      <c r="I10" s="8">
-        <v>8</v>
-      </c>
-      <c r="J10" s="17">
-        <v>5</v>
-      </c>
-      <c r="K10" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9">
-        <f t="shared" si="0"/>
-        <v>308</v>
-      </c>
-      <c r="B11" s="10">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
-        <v>297</v>
-      </c>
-      <c r="D11" s="10">
-        <v>9</v>
-      </c>
-      <c r="E11" s="11">
+        <v>0.4015761898472241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C24" s="10">
+        <v>24</v>
+      </c>
+      <c r="D24" s="8">
+        <v>74</v>
+      </c>
+      <c r="E24" s="11">
+        <f>B24/22713</f>
+        <v>4.3147096376524455E-3</v>
+      </c>
+      <c r="F24" s="11">
         <f t="shared" si="1"/>
-        <v>1.3560516004050545E-2</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="2"/>
-        <v>0.15414080042266545</v>
-      </c>
-      <c r="H11" s="17">
-        <v>297</v>
-      </c>
-      <c r="I11" s="8">
-        <v>9</v>
-      </c>
-      <c r="J11" s="17">
-        <v>11</v>
-      </c>
-      <c r="K11" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8">
-        <v>93</v>
-      </c>
-      <c r="D12" s="10">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11">
+        <v>0.40589089948487656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="C25" s="10">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8">
+        <v>193</v>
+      </c>
+      <c r="E25" s="11">
+        <f>B25/22713</f>
+        <v>9.9942764055827062E-3</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
-        <v>4.1826266895610446E-3</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="2"/>
-        <v>0.15832342711222649</v>
-      </c>
-      <c r="H12" s="17">
-        <v>93</v>
-      </c>
-      <c r="I12" s="8">
-        <v>10</v>
-      </c>
-      <c r="J12" s="17">
-        <v>2</v>
-      </c>
-      <c r="K12" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>87</v>
-      </c>
-      <c r="D13" s="10">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>3.874433144014441E-3</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="2"/>
-        <v>0.16219786025624094</v>
-      </c>
-      <c r="H13" s="17">
-        <v>87</v>
-      </c>
-      <c r="I13" s="8">
-        <v>11</v>
-      </c>
-      <c r="J13" s="17">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="9">
-        <f t="shared" si="0"/>
-        <v>513</v>
-      </c>
-      <c r="B14" s="10">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8">
-        <v>487</v>
-      </c>
-      <c r="D14" s="10">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="1"/>
-        <v>2.258618412362964E-2</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="2"/>
-        <v>0.18478404437987059</v>
-      </c>
-      <c r="H14" s="17">
-        <v>487</v>
-      </c>
-      <c r="I14" s="8">
-        <v>12</v>
-      </c>
-      <c r="J14" s="17">
-        <v>26</v>
-      </c>
-      <c r="K14" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="9">
-        <f t="shared" si="0"/>
-        <v>776</v>
-      </c>
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8">
-        <v>763</v>
-      </c>
-      <c r="D15" s="10">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="1"/>
-        <v>3.4165455906309164E-2</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="2"/>
-        <v>0.21894950028617977</v>
-      </c>
-      <c r="H15" s="17">
-        <v>763</v>
-      </c>
-      <c r="I15" s="8">
-        <v>13</v>
-      </c>
-      <c r="J15" s="17">
-        <v>13</v>
-      </c>
-      <c r="K15" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="9">
-        <f t="shared" si="0"/>
-        <v>1160</v>
-      </c>
-      <c r="B16" s="10">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1124</v>
-      </c>
-      <c r="D16" s="10">
-        <v>14</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="1"/>
-        <v>5.1072073262008542E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="2"/>
-        <v>0.27002157354818829</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1124</v>
-      </c>
-      <c r="I16" s="8">
-        <v>14</v>
-      </c>
-      <c r="J16" s="17">
-        <v>36</v>
-      </c>
-      <c r="K16" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9">
-        <f t="shared" si="0"/>
-        <v>4161</v>
-      </c>
-      <c r="B17" s="10">
-        <v>86</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4075</v>
-      </c>
-      <c r="D17" s="10">
-        <v>15</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="1"/>
-        <v>0.18319904900277373</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="2"/>
-        <v>0.45322062255096202</v>
-      </c>
-      <c r="H17" s="17">
-        <v>4075</v>
-      </c>
-      <c r="I17" s="8">
-        <v>15</v>
-      </c>
-      <c r="J17" s="17">
-        <v>86</v>
-      </c>
-      <c r="K17" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9">
-        <f t="shared" si="0"/>
-        <v>3509</v>
-      </c>
-      <c r="B18" s="10">
-        <v>82</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3427</v>
-      </c>
-      <c r="D18" s="10">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="1"/>
-        <v>0.15449302161757583</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="2"/>
-        <v>0.60771364416853779</v>
-      </c>
-      <c r="H18" s="17">
-        <v>3427</v>
-      </c>
-      <c r="I18" s="8">
-        <v>16</v>
-      </c>
-      <c r="J18" s="17">
-        <v>82</v>
-      </c>
-      <c r="K18" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9">
-        <f t="shared" si="0"/>
-        <v>2594</v>
-      </c>
-      <c r="B19" s="10">
-        <v>58</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2536</v>
-      </c>
-      <c r="D19" s="10">
-        <v>17</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="1"/>
-        <v>0.11420772244969842</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="2"/>
-        <v>0.72192136661823625</v>
-      </c>
-      <c r="H19" s="17">
-        <v>2536</v>
-      </c>
-      <c r="I19" s="8">
-        <v>17</v>
-      </c>
-      <c r="J19" s="17">
-        <v>58</v>
-      </c>
-      <c r="K19" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9">
-        <f t="shared" si="0"/>
-        <v>1814</v>
-      </c>
-      <c r="B20" s="10">
-        <v>59</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1755</v>
-      </c>
-      <c r="D20" s="10">
-        <v>18</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="1"/>
-        <v>7.9866155945934048E-2</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="2"/>
-        <v>0.8017875225641703</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1755</v>
-      </c>
-      <c r="I20" s="8">
-        <v>18</v>
-      </c>
-      <c r="J20" s="17">
-        <v>59</v>
-      </c>
-      <c r="K20" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9">
-        <f t="shared" si="0"/>
-        <v>1414</v>
-      </c>
-      <c r="B21" s="10">
-        <v>35</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1379</v>
-      </c>
-      <c r="D21" s="10">
-        <v>19</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="1"/>
-        <v>6.2255096200413862E-2</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="2"/>
-        <v>0.86404261876458421</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1379</v>
-      </c>
-      <c r="I21" s="8">
-        <v>19</v>
-      </c>
-      <c r="J21" s="17">
-        <v>35</v>
-      </c>
-      <c r="K21" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9">
-        <f t="shared" si="0"/>
-        <v>963</v>
-      </c>
-      <c r="B22" s="10">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>944</v>
-      </c>
-      <c r="D22" s="10">
-        <v>20</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="1"/>
-        <v>4.2398626337339852E-2</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="2"/>
-        <v>0.90644124510192403</v>
-      </c>
-      <c r="H22" s="17">
-        <v>944</v>
-      </c>
-      <c r="I22" s="8">
-        <v>20</v>
-      </c>
-      <c r="J22" s="17">
-        <v>19</v>
-      </c>
-      <c r="K22" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="9">
-        <f t="shared" si="0"/>
-        <v>735</v>
-      </c>
-      <c r="B23" s="10">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8">
-        <v>716</v>
-      </c>
-      <c r="D23" s="10">
-        <v>21</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="1"/>
-        <v>3.2360322282393342E-2</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="2"/>
-        <v>0.93880156738431741</v>
-      </c>
-      <c r="H23" s="17">
-        <v>716</v>
-      </c>
-      <c r="I23" s="8">
-        <v>21</v>
-      </c>
-      <c r="J23" s="17">
-        <v>19</v>
-      </c>
-      <c r="K23" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9">
-        <f t="shared" si="0"/>
-        <v>749</v>
-      </c>
-      <c r="B24" s="10">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8">
-        <v>725</v>
-      </c>
-      <c r="D24" s="10">
-        <v>22</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="1"/>
-        <v>3.2976709373486547E-2</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="2"/>
-        <v>0.97177827675780393</v>
-      </c>
-      <c r="H24" s="17">
-        <v>725</v>
-      </c>
-      <c r="I24" s="8">
-        <v>22</v>
-      </c>
-      <c r="J24" s="17">
-        <v>24</v>
-      </c>
-      <c r="K24" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9">
-        <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-      <c r="B25" s="10">
-        <v>34</v>
-      </c>
-      <c r="C25" s="8">
-        <v>607</v>
-      </c>
-      <c r="D25" s="10">
-        <v>23</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" si="1"/>
-        <v>2.8221723242196101E-2</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="17">
-        <v>607</v>
-      </c>
-      <c r="I25" s="8">
-        <v>23</v>
-      </c>
-      <c r="J25" s="17">
-        <v>34</v>
-      </c>
-      <c r="K25" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9">
-        <f>SUM(A2:A29)</f>
-        <v>22713</v>
-      </c>
-      <c r="B30" s="9">
-        <f>SUM(B2:B29)</f>
-        <v>674</v>
-      </c>
-      <c r="C30" s="9">
-        <f>SUM(C2:C29)</f>
-        <v>22039</v>
+        <v>0.41588517589045926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="D26" s="9">
+        <f>SUM(D2:D25)</f>
+        <v>8772</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>